--- a/python-xxl/data/CityofToronto_COVID-19_NeighbourhoodData.xlsx
+++ b/python-xxl/data/CityofToronto_COVID-19_NeighbourhoodData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tphtableau\Tableau\AODA Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSC\STHacks\python-xxl\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94813759-4A9C-4243-8F43-81CFE680B723}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="74580" yWindow="5655" windowWidth="19995" windowHeight="19500" tabRatio="827"/>
+    <workbookView xWindow="16610" yWindow="6660" windowWidth="19000" windowHeight="13200" tabRatio="827" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Note" sheetId="12" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="258">
   <si>
     <t>*Numbers are accurate as of download date and are subject to change</t>
   </si>
@@ -484,18 +485,448 @@
   </si>
   <si>
     <t>Sporadic</t>
+  </si>
+  <si>
+    <t>047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>044</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>077</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>097</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>087</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>079</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>088</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>064</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>039</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -518,11 +949,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -799,49 +1231,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -855,8 +1288,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>138</v>
       </c>
       <c r="B2" t="s">
@@ -869,9 +1302,9 @@
         <v>789</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>47</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -883,9 +1316,9 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>38</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -897,9 +1330,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>9</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -911,9 +1344,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>44</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -925,9 +1358,9 @@
         <v>816</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>59</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -939,8 +1372,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>129</v>
       </c>
       <c r="B8" t="s">
@@ -953,9 +1386,9 @@
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>99</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -967,8 +1400,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>137</v>
       </c>
       <c r="B10" t="s">
@@ -981,8 +1414,8 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>102</v>
       </c>
       <c r="B11" t="s">
@@ -995,8 +1428,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>111</v>
       </c>
       <c r="B12" t="s">
@@ -1009,8 +1442,8 @@
         <v>713</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>130</v>
       </c>
       <c r="B13" t="s">
@@ -1023,9 +1456,9 @@
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>55</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1037,9 +1470,9 @@
         <v>922</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>7</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1051,9 +1484,9 @@
         <v>606</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>60</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1065,9 +1498,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>12</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1079,9 +1512,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>10</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1093,9 +1526,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>15</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1107,8 +1540,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>114</v>
       </c>
       <c r="B20" t="s">
@@ -1121,8 +1554,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>133</v>
       </c>
       <c r="B21" t="s">
@@ -1135,9 +1568,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>75</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1149,9 +1582,9 @@
         <v>508</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>26</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -1163,9 +1596,9 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>61</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -1177,8 +1610,8 @@
         <v>406</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>124</v>
       </c>
       <c r="B25" t="s">
@@ -1191,8 +1624,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>100</v>
       </c>
       <c r="B26" t="s">
@@ -1205,8 +1638,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
         <v>120</v>
       </c>
       <c r="B27" t="s">
@@ -1219,9 +1652,9 @@
         <v>859</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>90</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
@@ -1233,8 +1666,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
         <v>115</v>
       </c>
       <c r="B29" t="s">
@@ -1247,9 +1680,9 @@
         <v>589</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>32</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
@@ -1261,9 +1694,9 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>77</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
@@ -1275,9 +1708,9 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>74</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
@@ -1289,9 +1722,9 @@
         <v>559</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>70</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
@@ -1303,8 +1736,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
         <v>106</v>
       </c>
       <c r="B34" t="s">
@@ -1317,9 +1750,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>93</v>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
@@ -1331,9 +1764,9 @@
         <v>631</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>42</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
@@ -1345,9 +1778,9 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>97</v>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
@@ -1359,9 +1792,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>53</v>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
@@ -1373,9 +1806,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>104</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
@@ -1387,9 +1820,9 @@
         <v>553</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>8</v>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
@@ -1401,9 +1834,9 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>89</v>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
@@ -1415,9 +1848,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>85</v>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B42" t="s">
         <v>46</v>
@@ -1429,8 +1862,8 @@
         <v>656</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>140</v>
       </c>
       <c r="B43" t="s">
@@ -1443,8 +1876,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
         <v>118</v>
       </c>
       <c r="B44" t="s">
@@ -1457,9 +1890,9 @@
         <v>635</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>36</v>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
@@ -1471,7 +1904,8 @@
         <v>872</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
       <c r="B46" t="s">
         <v>50</v>
       </c>
@@ -1479,9 +1913,9 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>84</v>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B47" t="s">
         <v>51</v>
@@ -1493,9 +1927,9 @@
         <v>345</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>49</v>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
@@ -1507,9 +1941,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>82</v>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="B49" t="s">
         <v>53</v>
@@ -1521,9 +1955,9 @@
         <v>442</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>14</v>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="B50" t="s">
         <v>54</v>
@@ -1535,8 +1969,8 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
         <v>123</v>
       </c>
       <c r="B51" t="s">
@@ -1549,8 +1983,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
         <v>117</v>
       </c>
       <c r="B52" t="s">
@@ -1563,8 +1997,8 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
         <v>122</v>
       </c>
       <c r="B53" t="s">
@@ -1577,9 +2011,9 @@
         <v>591</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>81</v>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="B54" t="s">
         <v>58</v>
@@ -1591,9 +2025,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>11</v>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
@@ -1605,9 +2039,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>5</v>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -1619,9 +2053,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>51</v>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="B57" t="s">
         <v>61</v>
@@ -1633,9 +2067,9 @@
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>87</v>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="B58" t="s">
         <v>62</v>
@@ -1647,9 +2081,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>68</v>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B59" t="s">
         <v>63</v>
@@ -1661,9 +2095,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>71</v>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="B60" t="s">
         <v>64</v>
@@ -1675,9 +2109,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>83</v>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="B61" t="s">
         <v>65</v>
@@ -1689,9 +2123,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>30</v>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
@@ -1703,9 +2137,9 @@
         <v>696</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>24</v>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B63" t="s">
         <v>67</v>
@@ -1717,9 +2151,9 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>20</v>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
@@ -1731,9 +2165,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>4</v>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
@@ -1745,9 +2179,9 @@
         <v>411</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>125</v>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
@@ -1759,8 +2193,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
         <v>110</v>
       </c>
       <c r="B67" t="s">
@@ -1773,9 +2207,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>2</v>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B68" t="s">
         <v>72</v>
@@ -1787,9 +2221,9 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>52</v>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B69" t="s">
         <v>73</v>
@@ -1801,9 +2235,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>72</v>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B70" t="s">
         <v>74</v>
@@ -1815,9 +2249,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>80</v>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="B71" t="s">
         <v>75</v>
@@ -1829,9 +2263,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>116</v>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B72" t="s">
         <v>76</v>
@@ -1843,9 +2277,9 @@
         <v>698</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>16</v>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
@@ -1857,9 +2291,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>135</v>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B74" t="s">
         <v>78</v>
@@ -1871,9 +2305,9 @@
         <v>642</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>98</v>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="B75" t="s">
         <v>79</v>
@@ -1885,9 +2319,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>136</v>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="B76" t="s">
         <v>80</v>
@@ -1899,9 +2333,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>29</v>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B77" t="s">
         <v>81</v>
@@ -1913,9 +2347,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>1</v>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
@@ -1927,9 +2361,9 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>101</v>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B79" t="s">
         <v>83</v>
@@ -1941,8 +2375,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
         <v>112</v>
       </c>
       <c r="B80" t="s">
@@ -1955,9 +2389,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>79</v>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="B81" t="s">
         <v>85</v>
@@ -1969,8 +2403,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
         <v>109</v>
       </c>
       <c r="B82" t="s">
@@ -1983,9 +2417,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>56</v>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
@@ -1997,8 +2431,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
         <v>103</v>
       </c>
       <c r="B84" t="s">
@@ -2011,9 +2445,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>73</v>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
@@ -2025,9 +2459,9 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>31</v>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
@@ -2039,9 +2473,9 @@
         <v>748</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>25</v>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
@@ -2053,9 +2487,9 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>91</v>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
@@ -2067,9 +2501,9 @@
         <v>341</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>66</v>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="B89" t="s">
         <v>93</v>
@@ -2081,9 +2515,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>3</v>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="B90" t="s">
         <v>94</v>
@@ -2095,9 +2529,9 @@
         <v>689</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>88</v>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B91" t="s">
         <v>95</v>
@@ -2109,9 +2543,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>58</v>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B92" t="s">
         <v>96</v>
@@ -2123,9 +2557,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>139</v>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="B93" t="s">
         <v>97</v>
@@ -2137,9 +2571,9 @@
         <v>827</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>21</v>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B94" t="s">
         <v>98</v>
@@ -2151,9 +2585,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>19</v>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="B95" t="s">
         <v>99</v>
@@ -2165,9 +2599,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>46</v>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
@@ -2179,9 +2613,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>131</v>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B97" t="s">
         <v>101</v>
@@ -2193,9 +2627,9 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>18</v>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B98" t="s">
         <v>102</v>
@@ -2207,9 +2641,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>34</v>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="B99" t="s">
         <v>103</v>
@@ -2221,9 +2655,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>67</v>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
@@ -2235,9 +2669,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>54</v>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="B101" t="s">
         <v>105</v>
@@ -2249,9 +2683,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>17</v>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="B102" t="s">
         <v>106</v>
@@ -2263,9 +2697,9 @@
         <v>689</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>64</v>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="B103" t="s">
         <v>107</v>
@@ -2277,9 +2711,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>126</v>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B104" t="s">
         <v>108</v>
@@ -2291,9 +2725,9 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>57</v>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B105" t="s">
         <v>109</v>
@@ -2305,8 +2739,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="1">
         <v>121</v>
       </c>
       <c r="B106" t="s">
@@ -2319,9 +2753,9 @@
         <v>451</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>6</v>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="B107" t="s">
         <v>111</v>
@@ -2333,8 +2767,8 @@
         <v>915</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="1">
         <v>127</v>
       </c>
       <c r="B108" t="s">
@@ -2347,8 +2781,8 @@
         <v>996</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
@@ -2361,9 +2795,9 @@
         <v>544</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>45</v>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="B110" t="s">
         <v>114</v>
@@ -2375,9 +2809,9 @@
         <v>620</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>69</v>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="B111" t="s">
         <v>115</v>
@@ -2389,8 +2823,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
         <v>119</v>
       </c>
       <c r="B112" t="s">
@@ -2403,8 +2837,8 @@
         <v>727</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
         <v>108</v>
       </c>
       <c r="B113" t="s">
@@ -2417,9 +2851,9 @@
         <v>420</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>27</v>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="B114" t="s">
         <v>118</v>
@@ -2431,9 +2865,9 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>22</v>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="B115" t="s">
         <v>119</v>
@@ -2445,9 +2879,9 @@
         <v>928</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>41</v>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="B116" t="s">
         <v>120</v>
@@ -2459,8 +2893,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
         <v>128</v>
       </c>
       <c r="B117" t="s">
@@ -2473,9 +2907,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>23</v>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B118" t="s">
         <v>122</v>
@@ -2487,9 +2921,9 @@
         <v>487</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>28</v>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="B119" t="s">
         <v>123</v>
@@ -2501,9 +2935,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>86</v>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="B120" t="s">
         <v>124</v>
@@ -2515,9 +2949,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>78</v>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="B121" t="s">
         <v>125</v>
@@ -2529,9 +2963,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>92</v>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B122" t="s">
         <v>126</v>
@@ -2543,9 +2977,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>63</v>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="B123" t="s">
         <v>127</v>
@@ -2557,9 +2991,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>48</v>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="B124" t="s">
         <v>128</v>
@@ -2571,9 +3005,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>43</v>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="B125" t="s">
         <v>129</v>
@@ -2585,9 +3019,9 @@
         <v>529</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>50</v>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="B126" t="s">
         <v>130</v>
@@ -2599,9 +3033,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>62</v>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="B127" t="s">
         <v>131</v>
@@ -2613,9 +3047,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>40</v>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="B128" t="s">
         <v>132</v>
@@ -2627,9 +3061,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>132</v>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B129" t="s">
         <v>133</v>
@@ -2641,9 +3075,9 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>96</v>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="B130" t="s">
         <v>134</v>
@@ -2655,8 +3089,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
         <v>134</v>
       </c>
       <c r="B131" t="s">
@@ -2669,9 +3103,9 @@
         <v>451</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>65</v>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B132" t="s">
         <v>136</v>
@@ -2683,9 +3117,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>39</v>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="B133" t="s">
         <v>137</v>
@@ -2697,9 +3131,9 @@
         <v>515</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>13</v>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="B134" t="s">
         <v>138</v>
@@ -2711,9 +3145,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>33</v>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="B135" t="s">
         <v>139</v>
@@ -2725,8 +3159,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
         <v>105</v>
       </c>
       <c r="B136" t="s">
@@ -2739,9 +3173,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>35</v>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="B137" t="s">
         <v>141</v>
@@ -2753,8 +3187,8 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
         <v>113</v>
       </c>
       <c r="B138" t="s">
@@ -2767,9 +3201,9 @@
         <v>988</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>94</v>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="B139" t="s">
         <v>143</v>
@@ -2781,8 +3215,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
         <v>95</v>
       </c>
       <c r="B140" t="s">
@@ -2795,8 +3229,8 @@
         <v>556</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
         <v>37</v>
       </c>
       <c r="B141" t="s">
@@ -2809,8 +3243,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
         <v>76</v>
       </c>
       <c r="B142" t="s">
@@ -2824,27 +3258,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2858,7 +3294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>138</v>
       </c>
@@ -2872,7 +3308,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>47</v>
       </c>
@@ -2886,7 +3322,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>38</v>
       </c>
@@ -2900,7 +3336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
@@ -2914,7 +3350,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>44</v>
       </c>
@@ -2928,7 +3364,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>59</v>
       </c>
@@ -2942,7 +3378,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>129</v>
       </c>
@@ -2956,7 +3392,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>99</v>
       </c>
@@ -2970,7 +3406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>137</v>
       </c>
@@ -2984,7 +3420,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>102</v>
       </c>
@@ -2998,7 +3434,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>111</v>
       </c>
@@ -3012,7 +3448,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>130</v>
       </c>
@@ -3026,7 +3462,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>55</v>
       </c>
@@ -3040,7 +3476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
@@ -3054,7 +3490,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>60</v>
       </c>
@@ -3068,7 +3504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>12</v>
       </c>
@@ -3082,7 +3518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>10</v>
       </c>
@@ -3096,7 +3532,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>114</v>
       </c>
@@ -3110,7 +3546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>15</v>
       </c>
@@ -3124,7 +3560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>133</v>
       </c>
@@ -3138,7 +3574,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>75</v>
       </c>
@@ -3152,7 +3588,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>26</v>
       </c>
@@ -3166,7 +3602,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>61</v>
       </c>
@@ -3180,7 +3616,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>124</v>
       </c>
@@ -3194,7 +3630,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>100</v>
       </c>
@@ -3208,7 +3644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>120</v>
       </c>
@@ -3222,7 +3658,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>90</v>
       </c>
@@ -3236,7 +3672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>115</v>
       </c>
@@ -3250,7 +3686,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>32</v>
       </c>
@@ -3264,7 +3700,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>74</v>
       </c>
@@ -3278,7 +3714,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>77</v>
       </c>
@@ -3292,7 +3728,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>70</v>
       </c>
@@ -3306,7 +3742,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>106</v>
       </c>
@@ -3320,7 +3756,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>93</v>
       </c>
@@ -3334,7 +3770,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>42</v>
       </c>
@@ -3348,7 +3784,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>97</v>
       </c>
@@ -3362,7 +3798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>53</v>
       </c>
@@ -3376,7 +3812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>104</v>
       </c>
@@ -3390,7 +3826,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>8</v>
       </c>
@@ -3404,7 +3840,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>89</v>
       </c>
@@ -3418,7 +3854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>85</v>
       </c>
@@ -3432,7 +3868,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>140</v>
       </c>
@@ -3446,7 +3882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>118</v>
       </c>
@@ -3460,7 +3896,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>36</v>
       </c>
@@ -3474,7 +3910,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>50</v>
       </c>
@@ -3482,7 +3918,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>84</v>
       </c>
@@ -3496,7 +3932,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>49</v>
       </c>
@@ -3510,7 +3946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>82</v>
       </c>
@@ -3524,7 +3960,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>14</v>
       </c>
@@ -3538,7 +3974,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>123</v>
       </c>
@@ -3552,7 +3988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>117</v>
       </c>
@@ -3566,7 +4002,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>122</v>
       </c>
@@ -3580,7 +4016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>81</v>
       </c>
@@ -3594,7 +4030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>11</v>
       </c>
@@ -3608,7 +4044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>5</v>
       </c>
@@ -3622,7 +4058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>51</v>
       </c>
@@ -3636,7 +4072,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>87</v>
       </c>
@@ -3650,7 +4086,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>68</v>
       </c>
@@ -3664,7 +4100,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>71</v>
       </c>
@@ -3678,7 +4114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>83</v>
       </c>
@@ -3692,7 +4128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>30</v>
       </c>
@@ -3706,7 +4142,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>24</v>
       </c>
@@ -3720,7 +4156,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>20</v>
       </c>
@@ -3734,7 +4170,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4</v>
       </c>
@@ -3748,7 +4184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>125</v>
       </c>
@@ -3762,7 +4198,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>110</v>
       </c>
@@ -3776,7 +4212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3790,7 +4226,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>52</v>
       </c>
@@ -3804,7 +4240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>72</v>
       </c>
@@ -3818,7 +4254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>80</v>
       </c>
@@ -3832,7 +4268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>116</v>
       </c>
@@ -3846,7 +4282,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>16</v>
       </c>
@@ -3860,7 +4296,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>135</v>
       </c>
@@ -3874,7 +4310,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>98</v>
       </c>
@@ -3888,7 +4324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>136</v>
       </c>
@@ -3902,7 +4338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>29</v>
       </c>
@@ -3916,7 +4352,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3930,7 +4366,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>101</v>
       </c>
@@ -3944,7 +4380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>112</v>
       </c>
@@ -3958,7 +4394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3972,7 +4408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>109</v>
       </c>
@@ -3986,7 +4422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>56</v>
       </c>
@@ -4000,7 +4436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>103</v>
       </c>
@@ -4014,7 +4450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>73</v>
       </c>
@@ -4028,7 +4464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>31</v>
       </c>
@@ -4042,7 +4478,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>25</v>
       </c>
@@ -4056,7 +4492,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>66</v>
       </c>
@@ -4070,7 +4506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>91</v>
       </c>
@@ -4084,7 +4520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>3</v>
       </c>
@@ -4098,7 +4534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>88</v>
       </c>
@@ -4112,7 +4548,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>58</v>
       </c>
@@ -4126,7 +4562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>139</v>
       </c>
@@ -4140,7 +4576,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>21</v>
       </c>
@@ -4154,7 +4590,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>19</v>
       </c>
@@ -4168,7 +4604,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>46</v>
       </c>
@@ -4182,7 +4618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>131</v>
       </c>
@@ -4196,7 +4632,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>18</v>
       </c>
@@ -4210,7 +4646,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>34</v>
       </c>
@@ -4224,7 +4660,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>67</v>
       </c>
@@ -4238,7 +4674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>54</v>
       </c>
@@ -4252,7 +4688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>17</v>
       </c>
@@ -4266,7 +4702,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>64</v>
       </c>
@@ -4280,7 +4716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>126</v>
       </c>
@@ -4294,7 +4730,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>57</v>
       </c>
@@ -4308,7 +4744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>121</v>
       </c>
@@ -4322,7 +4758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>6</v>
       </c>
@@ -4336,7 +4772,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>127</v>
       </c>
@@ -4350,7 +4786,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4364,7 +4800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>45</v>
       </c>
@@ -4378,7 +4814,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>69</v>
       </c>
@@ -4392,7 +4828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>119</v>
       </c>
@@ -4406,7 +4842,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>108</v>
       </c>
@@ -4420,7 +4856,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>27</v>
       </c>
@@ -4434,7 +4870,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>22</v>
       </c>
@@ -4448,7 +4884,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>41</v>
       </c>
@@ -4462,7 +4898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>128</v>
       </c>
@@ -4476,7 +4912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>23</v>
       </c>
@@ -4490,7 +4926,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>28</v>
       </c>
@@ -4504,7 +4940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>86</v>
       </c>
@@ -4518,7 +4954,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>78</v>
       </c>
@@ -4532,7 +4968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>92</v>
       </c>
@@ -4546,7 +4982,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>63</v>
       </c>
@@ -4560,7 +4996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>48</v>
       </c>
@@ -4574,7 +5010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>43</v>
       </c>
@@ -4588,7 +5024,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>50</v>
       </c>
@@ -4602,7 +5038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>62</v>
       </c>
@@ -4616,7 +5052,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>40</v>
       </c>
@@ -4630,7 +5066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>132</v>
       </c>
@@ -4644,7 +5080,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>96</v>
       </c>
@@ -4658,7 +5094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>134</v>
       </c>
@@ -4672,7 +5108,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>65</v>
       </c>
@@ -4686,7 +5122,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>39</v>
       </c>
@@ -4700,7 +5136,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>13</v>
       </c>
@@ -4714,7 +5150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>33</v>
       </c>
@@ -4728,7 +5164,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>105</v>
       </c>
@@ -4742,7 +5178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>35</v>
       </c>
@@ -4756,7 +5192,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>113</v>
       </c>
@@ -4770,7 +5206,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>95</v>
       </c>
@@ -4784,7 +5220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>94</v>
       </c>
@@ -4798,7 +5234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>37</v>
       </c>
@@ -4812,7 +5248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>76</v>
       </c>
@@ -4827,28 +5263,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4865,7 +5302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>105</v>
       </c>
@@ -4882,7 +5319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>133</v>
       </c>
@@ -4899,7 +5336,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>9</v>
       </c>
@@ -4916,7 +5353,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8</v>
       </c>
@@ -4933,7 +5370,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>66</v>
       </c>
@@ -4950,7 +5387,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>42</v>
       </c>
@@ -4967,7 +5404,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>94</v>
       </c>
@@ -4984,7 +5421,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>107</v>
       </c>
@@ -5001,7 +5438,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>98</v>
       </c>
@@ -5018,7 +5455,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>122</v>
       </c>
@@ -5035,7 +5472,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>83</v>
       </c>
@@ -5052,7 +5489,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>84</v>
       </c>
@@ -5069,7 +5506,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>132</v>
       </c>
@@ -5086,7 +5523,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>115</v>
       </c>
@@ -5103,7 +5540,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>32</v>
       </c>
@@ -5120,7 +5557,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>78</v>
       </c>
@@ -5137,7 +5574,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>139</v>
       </c>
@@ -5154,7 +5591,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>97</v>
       </c>
@@ -5171,7 +5608,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5188,7 +5625,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>57</v>
       </c>
@@ -5205,7 +5642,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>36</v>
       </c>
@@ -5222,7 +5659,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>104</v>
       </c>
@@ -5239,7 +5676,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>75</v>
       </c>
@@ -5256,7 +5693,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>18</v>
       </c>
@@ -5273,7 +5710,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
@@ -5290,7 +5727,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>138</v>
       </c>
@@ -5307,7 +5744,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>40</v>
       </c>
@@ -5324,7 +5761,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>125</v>
       </c>
@@ -5341,7 +5778,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>55</v>
       </c>
@@ -5358,7 +5795,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>101</v>
       </c>
@@ -5375,7 +5812,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>41</v>
       </c>
@@ -5392,7 +5829,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>93</v>
       </c>
@@ -5409,7 +5846,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>91</v>
       </c>
@@ -5426,7 +5863,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>28</v>
       </c>
@@ -5443,7 +5880,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>124</v>
       </c>
@@ -5460,7 +5897,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>130</v>
       </c>
@@ -5477,7 +5914,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>60</v>
       </c>
@@ -5494,7 +5931,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>100</v>
       </c>
@@ -5511,7 +5948,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>22</v>
       </c>
@@ -5528,7 +5965,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>59</v>
       </c>
@@ -5545,7 +5982,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>50</v>
       </c>
@@ -5562,7 +5999,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>13</v>
       </c>
@@ -5579,7 +6016,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>70</v>
       </c>
@@ -5596,7 +6033,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>17</v>
       </c>
@@ -5613,7 +6050,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>116</v>
       </c>
@@ -5630,7 +6067,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>108</v>
       </c>
@@ -5647,7 +6084,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>95</v>
       </c>
@@ -5664,7 +6101,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>72</v>
       </c>
@@ -5681,7 +6118,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>23</v>
       </c>
@@ -5698,7 +6135,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6</v>
       </c>
@@ -5715,7 +6152,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>30</v>
       </c>
@@ -5732,7 +6169,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>15</v>
       </c>
@@ -5749,7 +6186,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>87</v>
       </c>
@@ -5766,7 +6203,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>129</v>
       </c>
@@ -5783,7 +6220,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>77</v>
       </c>
@@ -5800,7 +6237,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>61</v>
       </c>
@@ -5817,7 +6254,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>92</v>
       </c>
@@ -5834,7 +6271,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>33</v>
       </c>
@@ -5851,7 +6288,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>127</v>
       </c>
@@ -5868,7 +6305,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>11</v>
       </c>
@@ -5885,7 +6322,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>7</v>
       </c>
@@ -5902,7 +6339,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>86</v>
       </c>
@@ -5919,7 +6356,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>67</v>
       </c>
@@ -5936,7 +6373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5953,7 +6390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>111</v>
       </c>
@@ -5970,7 +6407,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>96</v>
       </c>
@@ -5987,7 +6424,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>24</v>
       </c>
@@ -6004,7 +6441,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>10</v>
       </c>
@@ -6021,7 +6458,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>3</v>
       </c>
@@ -6038,7 +6475,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>123</v>
       </c>
@@ -6055,7 +6492,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>47</v>
       </c>
@@ -6072,7 +6509,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>49</v>
       </c>
@@ -6089,7 +6526,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>131</v>
       </c>
@@ -6106,7 +6543,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>53</v>
       </c>
@@ -6123,7 +6560,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>120</v>
       </c>
@@ -6140,7 +6577,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>14</v>
       </c>
@@ -6157,7 +6594,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>90</v>
       </c>
@@ -6174,7 +6611,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>73</v>
       </c>
@@ -6191,7 +6628,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>52</v>
       </c>
@@ -6208,7 +6645,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>102</v>
       </c>
@@ -6225,7 +6662,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6242,7 +6679,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>46</v>
       </c>
@@ -6259,7 +6696,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>136</v>
       </c>
@@ -6276,7 +6713,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>117</v>
       </c>
@@ -6293,7 +6730,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>80</v>
       </c>
@@ -6310,7 +6747,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>128</v>
       </c>
@@ -6327,7 +6764,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>34</v>
       </c>
@@ -6344,7 +6781,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>112</v>
       </c>
@@ -6361,7 +6798,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>43</v>
       </c>
@@ -6378,7 +6815,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>118</v>
       </c>
@@ -6395,7 +6832,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2</v>
       </c>
@@ -6412,7 +6849,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>137</v>
       </c>
@@ -6429,7 +6866,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>44</v>
       </c>
@@ -6446,7 +6883,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>50</v>
       </c>
@@ -6457,7 +6894,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>62</v>
       </c>
@@ -6474,7 +6911,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>16</v>
       </c>
@@ -6491,7 +6928,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>63</v>
       </c>
@@ -6508,7 +6945,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>37</v>
       </c>
@@ -6525,7 +6962,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>19</v>
       </c>
@@ -6542,7 +6979,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>31</v>
       </c>
@@ -6559,7 +6996,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>51</v>
       </c>
@@ -6576,7 +7013,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>69</v>
       </c>
@@ -6593,7 +7030,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6610,7 +7047,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>68</v>
       </c>
@@ -6627,7 +7064,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>65</v>
       </c>
@@ -6644,7 +7081,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6661,7 +7098,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>85</v>
       </c>
@@ -6678,7 +7115,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>38</v>
       </c>
@@ -6695,7 +7132,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>140</v>
       </c>
@@ -6712,7 +7149,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>134</v>
       </c>
@@ -6729,7 +7166,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>119</v>
       </c>
@@ -6746,7 +7183,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>12</v>
       </c>
@@ -6763,7 +7200,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>99</v>
       </c>
@@ -6780,7 +7217,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>126</v>
       </c>
@@ -6797,7 +7234,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>110</v>
       </c>
@@ -6814,7 +7251,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1</v>
       </c>
@@ -6831,7 +7268,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>76</v>
       </c>
@@ -6848,7 +7285,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>135</v>
       </c>
@@ -6865,7 +7302,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>79</v>
       </c>
@@ -6882,7 +7319,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>20</v>
       </c>
@@ -6899,7 +7336,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>29</v>
       </c>
@@ -6916,7 +7353,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>35</v>
       </c>
@@ -6933,7 +7370,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>45</v>
       </c>
@@ -6950,7 +7387,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>27</v>
       </c>
@@ -6967,7 +7404,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>21</v>
       </c>
@@ -6984,7 +7421,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>114</v>
       </c>
@@ -7001,7 +7438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>74</v>
       </c>
@@ -7018,7 +7455,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>48</v>
       </c>
@@ -7035,7 +7472,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>39</v>
       </c>
@@ -7052,7 +7489,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>109</v>
       </c>
@@ -7069,7 +7506,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>88</v>
       </c>
@@ -7086,7 +7523,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>56</v>
       </c>
@@ -7103,7 +7540,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>89</v>
       </c>
@@ -7120,7 +7557,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>82</v>
       </c>
@@ -7137,7 +7574,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>113</v>
       </c>
@@ -7154,7 +7591,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>58</v>
       </c>
@@ -7171,7 +7608,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>121</v>
       </c>
@@ -7188,7 +7625,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>54</v>
       </c>
@@ -7205,7 +7642,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>25</v>
       </c>
@@ -7222,7 +7659,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>71</v>
       </c>
@@ -7239,7 +7676,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>26</v>
       </c>
@@ -7257,28 +7694,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7295,7 +7733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>105</v>
       </c>
@@ -7312,7 +7750,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>133</v>
       </c>
@@ -7329,7 +7767,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>9</v>
       </c>
@@ -7346,7 +7784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>8</v>
       </c>
@@ -7363,7 +7801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>66</v>
       </c>
@@ -7380,7 +7818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>42</v>
       </c>
@@ -7397,7 +7835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>94</v>
       </c>
@@ -7414,7 +7852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>107</v>
       </c>
@@ -7431,7 +7869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>98</v>
       </c>
@@ -7448,7 +7886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>122</v>
       </c>
@@ -7465,7 +7903,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>83</v>
       </c>
@@ -7482,7 +7920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>84</v>
       </c>
@@ -7499,7 +7937,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>132</v>
       </c>
@@ -7516,7 +7954,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>115</v>
       </c>
@@ -7533,7 +7971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>32</v>
       </c>
@@ -7550,7 +7988,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>78</v>
       </c>
@@ -7567,7 +8005,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>139</v>
       </c>
@@ -7584,7 +8022,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>97</v>
       </c>
@@ -7601,7 +8039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4</v>
       </c>
@@ -7618,7 +8056,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>57</v>
       </c>
@@ -7635,7 +8073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>36</v>
       </c>
@@ -7652,7 +8090,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>104</v>
       </c>
@@ -7669,7 +8107,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>75</v>
       </c>
@@ -7686,7 +8124,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>18</v>
       </c>
@@ -7703,7 +8141,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7720,7 +8158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>138</v>
       </c>
@@ -7737,7 +8175,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>40</v>
       </c>
@@ -7754,7 +8192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>55</v>
       </c>
@@ -7771,7 +8209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>125</v>
       </c>
@@ -7788,7 +8226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>101</v>
       </c>
@@ -7805,7 +8243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>41</v>
       </c>
@@ -7822,7 +8260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>93</v>
       </c>
@@ -7839,7 +8277,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>91</v>
       </c>
@@ -7856,7 +8294,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>28</v>
       </c>
@@ -7873,7 +8311,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>124</v>
       </c>
@@ -7890,7 +8328,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>130</v>
       </c>
@@ -7907,7 +8345,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>60</v>
       </c>
@@ -7924,7 +8362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>100</v>
       </c>
@@ -7941,7 +8379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>22</v>
       </c>
@@ -7958,7 +8396,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>59</v>
       </c>
@@ -7975,7 +8413,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>50</v>
       </c>
@@ -7992,7 +8430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>13</v>
       </c>
@@ -8009,7 +8447,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>70</v>
       </c>
@@ -8026,7 +8464,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>17</v>
       </c>
@@ -8043,7 +8481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>116</v>
       </c>
@@ -8060,7 +8498,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>108</v>
       </c>
@@ -8077,7 +8515,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>95</v>
       </c>
@@ -8094,7 +8532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>72</v>
       </c>
@@ -8111,7 +8549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>23</v>
       </c>
@@ -8128,7 +8566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6</v>
       </c>
@@ -8145,7 +8583,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>30</v>
       </c>
@@ -8162,7 +8600,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>15</v>
       </c>
@@ -8179,7 +8617,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>87</v>
       </c>
@@ -8196,7 +8634,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>129</v>
       </c>
@@ -8213,7 +8651,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>77</v>
       </c>
@@ -8230,7 +8668,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>61</v>
       </c>
@@ -8247,7 +8685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>92</v>
       </c>
@@ -8264,7 +8702,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>33</v>
       </c>
@@ -8281,7 +8719,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>127</v>
       </c>
@@ -8298,7 +8736,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>11</v>
       </c>
@@ -8315,7 +8753,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>7</v>
       </c>
@@ -8332,7 +8770,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>86</v>
       </c>
@@ -8349,7 +8787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>67</v>
       </c>
@@ -8366,7 +8804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8383,7 +8821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>111</v>
       </c>
@@ -8400,7 +8838,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>96</v>
       </c>
@@ -8417,7 +8855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>24</v>
       </c>
@@ -8434,7 +8872,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>10</v>
       </c>
@@ -8451,7 +8889,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>3</v>
       </c>
@@ -8468,7 +8906,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>123</v>
       </c>
@@ -8485,7 +8923,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>47</v>
       </c>
@@ -8502,7 +8940,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>49</v>
       </c>
@@ -8519,7 +8957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>131</v>
       </c>
@@ -8536,7 +8974,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>53</v>
       </c>
@@ -8553,7 +8991,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>120</v>
       </c>
@@ -8570,7 +9008,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>14</v>
       </c>
@@ -8587,7 +9025,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>90</v>
       </c>
@@ -8604,7 +9042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>73</v>
       </c>
@@ -8621,7 +9059,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>52</v>
       </c>
@@ -8638,7 +9076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>102</v>
       </c>
@@ -8655,7 +9093,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8672,7 +9110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>46</v>
       </c>
@@ -8689,7 +9127,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>136</v>
       </c>
@@ -8706,7 +9144,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>117</v>
       </c>
@@ -8723,7 +9161,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>80</v>
       </c>
@@ -8740,7 +9178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>128</v>
       </c>
@@ -8757,7 +9195,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>34</v>
       </c>
@@ -8774,7 +9212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>112</v>
       </c>
@@ -8791,7 +9229,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>43</v>
       </c>
@@ -8808,7 +9246,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>118</v>
       </c>
@@ -8825,7 +9263,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2</v>
       </c>
@@ -8842,7 +9280,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>137</v>
       </c>
@@ -8859,7 +9297,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>44</v>
       </c>
@@ -8876,7 +9314,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>50</v>
       </c>
@@ -8887,7 +9325,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>62</v>
       </c>
@@ -8904,7 +9342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>16</v>
       </c>
@@ -8921,7 +9359,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>63</v>
       </c>
@@ -8938,7 +9376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>37</v>
       </c>
@@ -8955,7 +9393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>19</v>
       </c>
@@ -8972,7 +9410,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>31</v>
       </c>
@@ -8989,7 +9427,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>51</v>
       </c>
@@ -9006,7 +9444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>69</v>
       </c>
@@ -9023,7 +9461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9040,7 +9478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>68</v>
       </c>
@@ -9057,7 +9495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>65</v>
       </c>
@@ -9074,7 +9512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9091,7 +9529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>85</v>
       </c>
@@ -9108,7 +9546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>38</v>
       </c>
@@ -9125,7 +9563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>140</v>
       </c>
@@ -9142,7 +9580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>134</v>
       </c>
@@ -9159,7 +9597,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>119</v>
       </c>
@@ -9176,7 +9614,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>12</v>
       </c>
@@ -9193,7 +9631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>99</v>
       </c>
@@ -9210,7 +9648,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>126</v>
       </c>
@@ -9227,7 +9665,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>110</v>
       </c>
@@ -9244,7 +9682,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1</v>
       </c>
@@ -9261,7 +9699,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>76</v>
       </c>
@@ -9278,7 +9716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>135</v>
       </c>
@@ -9295,7 +9733,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>79</v>
       </c>
@@ -9312,7 +9750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>20</v>
       </c>
@@ -9329,7 +9767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>29</v>
       </c>
@@ -9346,7 +9784,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>35</v>
       </c>
@@ -9363,7 +9801,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>45</v>
       </c>
@@ -9380,7 +9818,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>27</v>
       </c>
@@ -9397,7 +9835,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>21</v>
       </c>
@@ -9414,7 +9852,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>114</v>
       </c>
@@ -9431,7 +9869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>74</v>
       </c>
@@ -9448,7 +9886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>48</v>
       </c>
@@ -9465,7 +9903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>39</v>
       </c>
@@ -9482,7 +9920,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>109</v>
       </c>
@@ -9499,7 +9937,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>88</v>
       </c>
@@ -9516,7 +9954,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>56</v>
       </c>
@@ -9533,7 +9971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>89</v>
       </c>
@@ -9550,7 +9988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>82</v>
       </c>
@@ -9567,7 +10005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>113</v>
       </c>
@@ -9584,7 +10022,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>58</v>
       </c>
@@ -9601,7 +10039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>121</v>
       </c>
@@ -9618,7 +10056,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>54</v>
       </c>
@@ -9635,7 +10073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>25</v>
       </c>
@@ -9652,7 +10090,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>71</v>
       </c>
@@ -9669,7 +10107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>26</v>
       </c>
@@ -9687,6 +10125,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>